--- a/设计资料/API文档.xlsx
+++ b/设计资料/API文档.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Source\Repos\kyykt\设计资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C77D1B5-7438-480F-9FEE-E8429FE9402E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C20AD9-B653-4F3E-B6AF-542BB42DA615}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{55CEB2E9-1FB9-4F5A-AEBF-DB974EE408ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>API</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>json格式的通知信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/notice?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -348,6 +344,66 @@
   </si>
   <si>
     <t>根据教师号返回教师信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json：签到码与二维码地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>向服务器请求生成一个课程的随机二维码，并向数据库中写入一个课程签到数据，并将上一次签到关闭（如果其未关闭）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionResult</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>向服务器发起签到请求，将课程签到次数+1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json格式的签到信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用二维码向服务器签到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,42 +544,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -844,17 +903,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC0B-E407-46DD-8F81-AE1926581339}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="1" bestFit="1" customWidth="1"/>
@@ -883,368 +942,427 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F18" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="15" t="s">
+    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="15" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15" t="s">
+    <row r="21" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A6:A10"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="E19:E21"/>
@@ -1254,11 +1372,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/设计资料/API文档.xlsx
+++ b/设计资料/API文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Source\Repos\kyykt\设计资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA14A97-0042-427B-9AA4-F60777740AA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96306439-EEAF-4258-B9E5-FA05642EE68B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{55CEB2E9-1FB9-4F5A-AEBF-DB974EE408ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>API</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>json格式的通知信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/notice?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -327,7 +323,91 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>教师登陆</t>
+    <t>点名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json：签到码与二维码地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>向服务器请求生成一个课程的随机二维码，并向数据库中写入一个课程签到数据，并将上一次签到关闭（如果其未关闭）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionResult</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>向服务器发起签到请求，将课程签到次数+1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json格式的签到信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用二维码向服务器签到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/teacher?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherId=xxx&amp;TeacherPasswd=xxx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json：教师信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -335,23 +415,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/api/teacher/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>json：教师信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据教师号返回教师信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点名签到</t>
+    <t>JSON格式的教室信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,8 +475,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +512,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -461,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,8 +558,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +596,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,19 +617,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="60% - 着色 2" xfId="4" builtinId="36"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="着色 2" xfId="5" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -848,17 +945,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC0B-E407-46DD-8F81-AE1926581339}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="1" bestFit="1" customWidth="1"/>
@@ -887,13 +984,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -907,11 +1004,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -921,8 +1018,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
@@ -937,8 +1034,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -953,7 +1050,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -973,7 +1070,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
@@ -991,8 +1088,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1009,8 +1106,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1025,8 +1122,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1041,7 +1138,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1061,7 +1158,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
@@ -1079,7 +1176,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1097,7 +1194,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
@@ -1115,17 +1212,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1133,132 +1230,192 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="10" t="s">
+    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>81</v>
+      <c r="C26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A6:A10"/>
+  <mergeCells count="17">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="E19:E21"/>
@@ -1268,6 +1425,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/设计资料/API文档.xlsx
+++ b/设计资料/API文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Source\Repos\kyykt\设计资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C20AD9-B653-4F3E-B6AF-542BB42DA615}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96306439-EEAF-4258-B9E5-FA05642EE68B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{55CEB2E9-1FB9-4F5A-AEBF-DB974EE408ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>API</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -323,7 +323,91 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>教师登陆</t>
+    <t>点名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json：签到码与二维码地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>向服务器请求生成一个课程的随机二维码，并向数据库中写入一个课程签到数据，并将上一次签到关闭（如果其未关闭）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionResult</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>向服务器发起签到请求，将课程签到次数+1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json格式的签到信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用二维码向服务器签到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/teacher?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherId=xxx&amp;TeacherPasswd=xxx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json：教师信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -331,79 +415,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/api/teacher/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>json：教师信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据教师号返回教师信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/QrCode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/QrCode?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json：签到码与二维码地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>向服务器请求生成一个课程的随机二维码，并向数据库中写入一个课程签到数据，并将上一次签到关闭（如果其未关闭）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionResult</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>向服务器发起签到请求，将课程签到次数+1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/QrCode/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json格式的签到信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用二维码向服务器签到</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程号</t>
+    <t>JSON格式的教室信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,8 +475,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +512,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -513,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,8 +558,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +596,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,22 +617,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="60% - 着色 2" xfId="4" builtinId="36"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="着色 2" xfId="5" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -903,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC0B-E407-46DD-8F81-AE1926581339}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -942,13 +984,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -962,11 +1004,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -976,8 +1018,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
@@ -992,8 +1034,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1008,7 +1050,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1028,7 +1070,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1046,8 +1088,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1064,8 +1106,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1080,8 +1122,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1096,7 +1138,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1116,7 +1158,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
@@ -1134,7 +1176,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1152,7 +1194,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
@@ -1170,17 +1212,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1188,29 +1230,29 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>94</v>
+      <c r="D17" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>65</v>
@@ -1220,11 +1262,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
@@ -1236,17 +1278,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -1254,115 +1296,126 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="E24" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="F24" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="F26" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A6:A10"/>
+  <mergeCells count="17">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="E19:E21"/>
@@ -1372,6 +1425,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/设计资料/API文档.xlsx
+++ b/设计资料/API文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Source\Repos\kyykt\设计资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96306439-EEAF-4258-B9E5-FA05642EE68B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBDB7D-9DA9-4F75-A0DD-671325F39A50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{55CEB2E9-1FB9-4F5A-AEBF-DB974EE408ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="103">
   <si>
     <t>API</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -367,10 +367,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/api/QrCode/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Json格式的签到信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -420,6 +416,30 @@
   </si>
   <si>
     <t>修改个人信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassId=xxx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/signin?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassId=xxx&amp;SignInNums=x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json数组："studentId": "shl",
+        "studentName": "Xb16330124",
+        "studentTel": "1111111111",
+        "studentHasSignIn": false,
+        "studentSignInTime": "9999-12-31T23:59:59.9999999"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师获取当前课堂点名信息（建议定时调用这个以做到实时刷新页面）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -599,32 +619,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -945,11 +965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC0B-E407-46DD-8F81-AE1926581339}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,13 +1004,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1004,11 +1024,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -1018,8 +1038,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1034,8 +1054,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1070,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1070,7 +1090,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1088,8 +1108,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1106,8 +1126,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1122,8 +1142,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1138,7 +1158,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1158,7 +1178,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
@@ -1176,7 +1196,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1194,7 +1214,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
@@ -1212,17 +1232,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1230,29 +1250,29 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>65</v>
@@ -1262,11 +1282,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
@@ -1278,17 +1298,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -1296,140 +1316,158 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
+      <c r="E25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="E26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="F26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>87</v>
+    </row>
+    <row r="27" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/设计资料/API文档.xlsx
+++ b/设计资料/API文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Source\Repos\kyykt\设计资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBDB7D-9DA9-4F75-A0DD-671325F39A50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817ACF41-8551-42A1-9723-3E7299EBB9C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{55CEB2E9-1FB9-4F5A-AEBF-DB974EE408ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
   <si>
     <t>API</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -440,6 +440,34 @@
   </si>
   <si>
     <t>教师获取当前课堂点名信息（建议定时调用这个以做到实时刷新页面）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/signin/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json数组，课程的各种信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/QrCode/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前签到码强制过期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -561,6 +589,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,25 +690,34 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC0B-E407-46DD-8F81-AE1926581339}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,13 +1078,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1024,11 +1098,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -1038,8 +1112,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1054,8 +1128,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1070,7 +1144,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1090,7 +1164,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1108,8 +1182,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1126,8 +1200,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1142,8 +1216,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1158,7 +1232,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1178,7 +1252,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
@@ -1196,7 +1270,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1214,7 +1288,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
@@ -1232,17 +1306,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1250,25 +1324,25 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1282,11 +1356,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
@@ -1298,17 +1372,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -1316,31 +1390,31 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1352,7 +1426,7 @@
       <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1360,7 +1434,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="3" t="s">
         <v>95</v>
       </c>
@@ -1370,104 +1444,140 @@
       <c r="D23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F26" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12" t="s">
+    <row r="29" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/设计资料/API文档.xlsx
+++ b/设计资料/API文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Source\Repos\kyykt\设计资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817ACF41-8551-42A1-9723-3E7299EBB9C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67093DE9-3C52-4E68-918F-320A477BA337}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{55CEB2E9-1FB9-4F5A-AEBF-DB974EE408ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="120">
   <si>
     <t>API</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -468,6 +468,46 @@
   </si>
   <si>
     <t>将当前签到码强制过期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/Class</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json:ClassId:""</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json格式的开课信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据开课号返回一个课程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/SignIn/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取该教师的全部开课</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json数组：开课信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,19 +745,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,14 +1085,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DEC0B-E407-46DD-8F81-AE1926581339}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -1251,28 +1297,28 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -1281,298 +1327,333 @@
         <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="s">
+    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="8" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="9" t="s">
+    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="10" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18" t="s">
+    <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="D21" s="23"/>
       <c r="E21" s="18"/>
       <c r="F21" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="4" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="12" t="s">
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="12" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="12" t="s">
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="12" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C17:C18"/>
+  <mergeCells count="18">
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A2:A5"/>
